--- a/biology/Médecine/Encéphalite_équine/Encéphalite_équine.xlsx
+++ b/biology/Médecine/Encéphalite_équine/Encéphalite_équine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalite_%C3%A9quine</t>
+          <t>Encéphalite_équine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'encéphalite équine est une maladie virale du cheval qui affectent également les humains ou les canidés. Plusieurs formes de cette inflammation du cerveau peuvent infecter les équidés, dont :
 Virus de l'encéphalite équine de l'Est
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phalite_%C3%A9quine</t>
+          <t>Encéphalite_équine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Equine encephalitis » (voir la liste des auteurs).
  Portail des maladies infectieuses   Portail de la virologie   Portail des neurosciences   Portail de la médecine vétérinaire                  </t>
